--- a/statistic.xlsx
+++ b/statistic.xlsx
@@ -8,13 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minsik/Desktop/UNIST/AICP_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A875BB9-29D2-0942-B590-EB7A0D39E3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2DFF6D21-DE03-304C-B210-671889ADFE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="2680" windowWidth="28300" windowHeight="17440"/>
+    <workbookView xWindow="10920" yWindow="5300" windowWidth="28300" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="statistic" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">statistic!$A$1:$B$45</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">statistic!$B$2:$B$33</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">statistic!$G$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">statistic!$G$2:$G$33</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">statistic!$B$2:$B$33</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">statistic!$G$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">statistic!$G$2:$G$33</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -743,6 +752,4536 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en" altLang="ko-KR"/>
+              <a:t>bnoc1_vertex_density</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>statistic!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vertex_density</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>statistic!$B$2:$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>abcore</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ktip</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kwing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bitruss</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LPAb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LPAb_Plus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>statistic!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.93333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6932802122726001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8778455951964701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7520704854478399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.45077995937023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1445901661293498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDBF-FD4B-AE4A-62B86FBB3FE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2076933376"/>
+        <c:axId val="2077112544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2076933376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077112544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2077112544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2076933376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en" altLang="ko-KR"/>
+              <a:t>bnoc1_edge_density</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>statistic!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>edge_density</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>statistic!$B$2:$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>abcore</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ktip</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kwing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bitruss</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LPAb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LPAb_Plus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>statistic!$D$2:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.4666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2941176470588198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91666666666666596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.37333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71197916666666605</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.04846526022996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E05B-A842-92C1-E88B63477F92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="795395984"/>
+        <c:axId val="795193200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="795395984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795193200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="795193200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795395984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en" altLang="ko-KR"/>
+              <a:t>bnoc1_graph_density</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>statistic!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>graph_density</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>statistic!$B$2:$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>abcore</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ktip</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kwing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bitruss</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LPAb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LPAb_Plus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>statistic!$E$2:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.154074074074074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59790209790209703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18019943019942999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98524305555555503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87320261437908497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9A3-464D-B71F-35F82E367F9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="132660463"/>
+        <c:axId val="132478927"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="132660463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="132478927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="132478927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="132660463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>bnoc1_barbers_modularity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>statistic!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>barbers_modularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>statistic!$B$2:$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>abcore</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ktip</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kwing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bitruss</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LPAb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LPAb_Plus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>statistic!$F$2:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.91329917576297603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97767857142857095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41944444444444401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74271329917576301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.25356426821117E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4287342916672099E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D5C-7844-A875-6E8CE14DC636}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="152534943"/>
+        <c:axId val="176748303"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="152534943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="176748303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="176748303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152534943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en" altLang="ko-KR"/>
+              <a:t>bnoc1_run_time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>statistic!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>run_time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>statistic!$B$2:$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>abcore</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ktip</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kwing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bitruss</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LPAb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LPAb_Plus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>statistic!$G$2:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.1451244354247999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4740695953369102E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6048622131347601E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.76059913635253E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3393931388854901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6233844757079995E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-650F-9244-BB0D-4700E579781C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="285465519"/>
+        <c:axId val="285364975"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="285465519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285364975"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="285364975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285465519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2952D5F1-8B80-0866-8D26-8175F2C385CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6A2D1C-2913-F64E-0461-EE245813D871}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="차트 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8187C966-520F-D776-B604-FAC932C8F434}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="차트 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA31C667-34E1-0781-496F-F4BD62E63062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="차트 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6718F35D-B324-4CB7-BB5D-1DB72AB2115E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -1040,9 +5579,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
@@ -1104,7 +5646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1133,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1162,7 +5704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1191,7 +5733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1220,7 +5762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1249,7 +5791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1307,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1336,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1365,7 +5907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1394,7 +5936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" hidden="1">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1423,7 +5965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1452,7 +5994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1510,7 +6052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1539,7 +6081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1568,7 +6110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1597,7 +6139,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1626,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1655,7 +6197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1713,7 +6255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1742,7 +6284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" hidden="1">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1771,7 +6313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" hidden="1">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1800,7 +6342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1829,7 +6371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" hidden="1">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1858,7 +6400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1916,7 +6458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" hidden="1">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1945,7 +6487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" hidden="1">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2003,7 +6545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" hidden="1">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -2032,7 +6574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -2061,7 +6603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" hidden="1">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -2090,7 +6632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" hidden="1">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2119,7 +6661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" hidden="1">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -2148,7 +6690,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" hidden="1">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -2177,7 +6719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" hidden="1">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -2206,7 +6748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2235,7 +6777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2264,7 +6806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" hidden="1">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2293,7 +6835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" hidden="1">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -2322,7 +6864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" hidden="1">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2352,7 +6894,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B45">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="bnoc1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/statistic.xlsx
+++ b/statistic.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minsik/Desktop/UNIST/AICP_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2DFF6D21-DE03-304C-B210-671889ADFE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBA3582-2DD6-AD45-A69F-68817D33CFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="5300" windowWidth="28300" windowHeight="17440"/>
+    <workbookView xWindow="7700" yWindow="4840" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">statistic!$A$1:$B$45</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">statistic!$B$2:$B$33</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">statistic!$B$2:$B$38</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">statistic!$G$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">statistic!$G$2:$G$33</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">statistic!$B$2:$B$33</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">statistic!$G$2:$G$38</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">statistic!$B$2:$B$38</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">statistic!$G$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">statistic!$G$2:$G$33</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">statistic!$G$2:$G$38</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -786,8 +786,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en" altLang="ko-KR"/>
-              <a:t>bnoc1_vertex_density</a:t>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>bnoc4_edge_density</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -833,11 +833,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>statistic!$C$1</c:f>
+              <c:f>statistic!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>vertex_density</c:v>
+                  <c:v>edge_density</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -852,11 +852,68 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistic!$B$2:$B$33</c:f>
+              <c:f>statistic!$B$2:$B$36</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>abcore</c:v>
                 </c:pt>
@@ -869,45 +926,33 @@
                 <c:pt idx="3">
                   <c:v>bitruss</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>LPAb</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>LPAb_Plus</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistic!$C$2:$C$33</c:f>
+              <c:f>statistic!$D$2:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.93333333333333</c:v>
+                  <c:v>11.2414486921529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6932802122726001</c:v>
+                  <c:v>11.269969666329599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8778455951964701</c:v>
+                  <c:v>0.65739556692242096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7520704854478399</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.45077995937023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.1445901661293498</c:v>
+                  <c:v>11.35367114788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DDBF-FD4B-AE4A-62B86FBB3FE0}"/>
+              <c16:uniqueId val="{00000000-5A3B-7843-BE78-FF0509610531}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -921,11 +966,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2076933376"/>
-        <c:axId val="2077112544"/>
+        <c:axId val="1185618928"/>
+        <c:axId val="1185553520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2076933376"/>
+        <c:axId val="1185618928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -968,7 +1013,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2077112544"/>
+        <c:crossAx val="1185553520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -976,7 +1021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2077112544"/>
+        <c:axId val="1185553520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1027,7 +1072,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2076933376"/>
+        <c:crossAx val="1185618928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1110,8 +1155,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en" altLang="ko-KR"/>
-              <a:t>bnoc1_edge_density</a:t>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>bnoc7_vertex_density</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1157,11 +1202,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>statistic!$D$1</c:f>
+              <c:f>statistic!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>edge_density</c:v>
+                  <c:v>vertex_density</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1176,11 +1221,68 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistic!$B$2:$B$33</c:f>
+              <c:f>statistic!$B$2:$B$39</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>abcore</c:v>
                 </c:pt>
@@ -1194,9 +1296,6 @@
                   <c:v>bitruss</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>LPAb</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>LPAb_Plus</c:v>
                 </c:pt>
               </c:strCache>
@@ -1204,34 +1303,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistic!$D$2:$D$33</c:f>
+              <c:f>statistic!$C$2:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.4666666666666601</c:v>
+                  <c:v>22.4833069880168</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2941176470588198</c:v>
+                  <c:v>22.5413336313846</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91666666666666596</c:v>
+                  <c:v>1.34626759205253</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.37333333333333</c:v>
+                  <c:v>22.707937267737599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71197916666666605</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.04846526022996</c:v>
+                  <c:v>8.6193583294967304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E05B-A842-92C1-E88B63477F92}"/>
+              <c16:uniqueId val="{00000000-DA63-5B45-99C2-3B777BFFEF1F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1245,11 +1341,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="795395984"/>
-        <c:axId val="795193200"/>
+        <c:axId val="2003472800"/>
+        <c:axId val="1986913648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="795395984"/>
+        <c:axId val="2003472800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1292,7 +1388,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="795193200"/>
+        <c:crossAx val="1986913648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1300,7 +1396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="795193200"/>
+        <c:axId val="1986913648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1351,7 +1447,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="795395984"/>
+        <c:crossAx val="2003472800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1435,7 +1531,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en" altLang="ko-KR"/>
-              <a:t>bnoc1_graph_density</a:t>
+              <a:t>bnoc7_edge_density</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1481,11 +1577,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>statistic!$E$1</c:f>
+              <c:f>statistic!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>graph_density</c:v>
+                  <c:v>edge_density</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1500,11 +1596,68 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistic!$B$2:$B$33</c:f>
+              <c:f>statistic!$B$2:$B$39</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>abcore</c:v>
                 </c:pt>
@@ -1518,9 +1671,6 @@
                   <c:v>bitruss</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>LPAb</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>LPAb_Plus</c:v>
                 </c:pt>
               </c:strCache>
@@ -1528,34 +1678,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistic!$E$2:$E$33</c:f>
+              <c:f>statistic!$D$2:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.154074074074074</c:v>
+                  <c:v>11.2414486921529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16</c:v>
+                  <c:v>11.269969666329599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59790209790209703</c:v>
+                  <c:v>0.65739556692242096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18019943019942999</c:v>
+                  <c:v>11.35367114788</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98524305555555503</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.87320261437908497</c:v>
+                  <c:v>4.3058584509760696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D9A3-464D-B71F-35F82E367F9A}"/>
+              <c16:uniqueId val="{00000000-8E48-0446-96AF-7D690F9BC9B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1569,11 +1716,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="132660463"/>
-        <c:axId val="132478927"/>
+        <c:axId val="2003599328"/>
+        <c:axId val="99906607"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132660463"/>
+        <c:axId val="2003599328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,7 +1763,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132478927"/>
+        <c:crossAx val="99906607"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1624,7 +1771,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132478927"/>
+        <c:axId val="99906607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,7 +1822,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132660463"/>
+        <c:crossAx val="2003599328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1758,8 +1905,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>bnoc1_barbers_modularity</a:t>
+              <a:rPr lang="en" altLang="ko-KR"/>
+              <a:t>bnoc7_graph_density</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1805,11 +1952,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>statistic!$F$1</c:f>
+              <c:f>statistic!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>barbers_modularity</c:v>
+                  <c:v>graph_density</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1824,11 +1971,68 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistic!$B$2:$B$33</c:f>
+              <c:f>statistic!$B$2:$B$39</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>abcore</c:v>
                 </c:pt>
@@ -1842,9 +2046,6 @@
                   <c:v>bitruss</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>LPAb</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>LPAb_Plus</c:v>
                 </c:pt>
               </c:strCache>
@@ -1852,34 +2053,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistic!$F$2:$F$33</c:f>
+              <c:f>statistic!$E$2:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.91329917576297603</c:v>
+                  <c:v>4.5238866396761099E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97767857142857095</c:v>
+                  <c:v>4.5586912065439598E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41944444444444401</c:v>
+                  <c:v>0.90169731258840102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74271329917576301</c:v>
+                  <c:v>4.6966974674880202E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.25356426821117E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4287342916672099E-2</c:v>
+                  <c:v>0.24893256995594301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D5C-7844-A875-6E8CE14DC636}"/>
+              <c16:uniqueId val="{00000000-4659-AE4B-B0B4-EFBBE8168E44}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1893,11 +2091,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="152534943"/>
-        <c:axId val="176748303"/>
+        <c:axId val="23623087"/>
+        <c:axId val="2077510688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152534943"/>
+        <c:axId val="23623087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,7 +2138,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176748303"/>
+        <c:crossAx val="2077510688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1948,7 +2146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176748303"/>
+        <c:axId val="2077510688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,7 +2197,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152534943"/>
+        <c:crossAx val="23623087"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2083,7 +2281,382 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en" altLang="ko-KR"/>
-              <a:t>bnoc1_run_time</a:t>
+              <a:t>bnoc7_barbers_modularity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>statistic!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>barbers_modularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>statistic!$B$2:$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>abcore</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ktip</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kwing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bitruss</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LPAb_Plus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>statistic!$F$2:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.99544339321576303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99803192889095804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1232782369146004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97814283321366802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8991033565959401E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F053-BD40-A578-21D1F7CE22A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="99920783"/>
+        <c:axId val="1816608815"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="99920783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1816608815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1816608815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99920783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en" altLang="ko-KR"/>
+              <a:t>bnoc7_run_time</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2148,11 +2721,68 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistic!$B$2:$B$33</c:f>
+              <c:f>statistic!$B$2:$B$39</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>abcore</c:v>
                 </c:pt>
@@ -2166,9 +2796,6 @@
                   <c:v>bitruss</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>LPAb</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>LPAb_Plus</c:v>
                 </c:pt>
               </c:strCache>
@@ -2176,34 +2803,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistic!$G$2:$G$33</c:f>
+              <c:f>statistic!$G$2:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.1451244354247999E-3</c:v>
+                  <c:v>2.6644945144653299E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4740695953369102E-3</c:v>
+                  <c:v>0.21723008155822701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6048622131347601E-2</c:v>
+                  <c:v>1661.40072083473</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.76059913635253E-2</c:v>
+                  <c:v>20.3168768882751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3393931388854901</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.6233844757079995E-2</c:v>
+                  <c:v>5.3456249237060502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-650F-9244-BB0D-4700E579781C}"/>
+              <c16:uniqueId val="{00000000-1013-0246-9293-154D06309035}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2217,11 +2841,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="285465519"/>
-        <c:axId val="285364975"/>
+        <c:axId val="2145480784"/>
+        <c:axId val="2145472592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="285465519"/>
+        <c:axId val="2145480784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2264,7 +2888,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285364975"/>
+        <c:crossAx val="2145472592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2272,10 +2896,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285364975"/>
+        <c:axId val="2145472592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2293,15 +2916,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2333,7 +2947,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285465519"/>
+        <c:crossAx val="2145480784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2582,6 +3196,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5097,27 +5751,530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="차트 4">
+        <xdr:cNvPr id="25" name="차트 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2952D5F1-8B80-0866-8D26-8175F2C385CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{574764B8-4A74-87F7-A89B-E81F67A48C70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5137,23 +6294,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="차트 5">
+        <xdr:cNvPr id="26" name="차트 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6A2D1C-2913-F64E-0461-EE245813D871}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C3D1948-E2B0-79EA-FCAE-DD14E14EA4FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5173,23 +6330,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="차트 6">
+        <xdr:cNvPr id="31" name="차트 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8187C966-520F-D776-B604-FAC932C8F434}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CEC2CB-B4A9-C6B3-8533-21451E34F2C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5209,23 +6366,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="차트 7">
+        <xdr:cNvPr id="32" name="차트 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA31C667-34E1-0781-496F-F4BD62E63062}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7BB75DF-09F2-873C-3376-B93AC142F724}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5245,23 +6402,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="차트 8">
+        <xdr:cNvPr id="33" name="차트 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6718F35D-B324-4CB7-BB5D-1DB72AB2115E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB7FB359-60B6-4D48-5F17-9643443221FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5274,6 +6431,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="34" name="차트 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B29AF6-F735-E1EB-3E14-EA25AE0F3854}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5578,15 +6771,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="8" max="8" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -5617,7 +6813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" hidden="1">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -5791,7 +6987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -5820,7 +7016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5994,7 +7190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -6023,7 +7219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -6197,7 +7393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -6226,7 +7422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -6400,7 +7596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -6429,7 +7625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" hidden="1">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -6516,7 +7712,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -6690,7 +7886,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -6894,10 +8090,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B45">
+  <autoFilter ref="A1:B45" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="bnoc1"/>
+        <filter val="bnoc7"/>
       </filters>
     </filterColumn>
   </autoFilter>
